--- a/2-PERSONAL/2-CESES/7. JULIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/7. JULIO-2022-CESES-PUCUSANA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D7213-5E92-46EB-B38D-B05EFBF66720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E5D52-6FC0-474B-81DF-AC0B1FBC3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>73439652</t>
+  </si>
+  <si>
+    <t>RUIZ MACEDO</t>
+  </si>
+  <si>
+    <t>SUSANY MARIA</t>
+  </si>
+  <si>
+    <t>SILVA GARCIA</t>
+  </si>
+  <si>
+    <t>DAYALIS YURUVI</t>
+  </si>
+  <si>
+    <t>RUIZ MACEDO SUSANY MARIA</t>
+  </si>
+  <si>
+    <t>SILVA GARCIA DAYALIS YURUVI</t>
+  </si>
+  <si>
+    <t>001505014</t>
   </si>
 </sst>
 </file>
@@ -650,7 +671,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +868,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -880,14 +901,30 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43030843</v>
+      </c>
+      <c r="D10" s="18">
+        <v>44456</v>
+      </c>
+      <c r="E10" s="18">
+        <v>44744</v>
+      </c>
+      <c r="F10" s="18">
+        <v>44750</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="9"/>
@@ -896,14 +933,30 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="18">
+        <v>44707</v>
+      </c>
+      <c r="E11" s="18">
+        <v>44743</v>
+      </c>
+      <c r="F11" s="18">
+        <v>44750</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="9"/>
@@ -1136,10 +1189,10 @@
       <c r="N25" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N9" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
-    <filterColumn colId="1">
+  <autoFilter ref="A4:N11" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+    <filterColumn colId="5">
       <filters>
-        <filter val="CANALES CAJA ANDERSON HONORIO ANGEL"/>
+        <dateGroupItem year="2022" month="7" day="8" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1153,7 +1206,7 @@
   <dimension ref="B4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,18 +1303,26 @@
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+        <v>RUIZ MACEDO SUSANY MARIA</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+        <v>SILVA GARCIA DAYALIS YURUVI</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="str">

--- a/2-PERSONAL/2-CESES/7. JULIO-2022-CESES-PUCUSANA.xlsx
+++ b/2-PERSONAL/2-CESES/7. JULIO-2022-CESES-PUCUSANA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\2-CESES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E5D52-6FC0-474B-81DF-AC0B1FBC3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD87AB-18E5-4C26-B8DA-F64E85637F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07747DA7-88DF-43B8-A3F2-BA3A9EBFFB3D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PAGO QUINCENA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CESES!$A$4:$N$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>001505014</t>
+  </si>
+  <si>
+    <t>MERCADO CUYA MAYBELYN</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +903,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -932,7 +935,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -965,14 +968,30 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="20">
+        <v>72790526</v>
+      </c>
+      <c r="D12" s="18">
+        <v>44677</v>
+      </c>
+      <c r="E12" s="18">
+        <v>44754</v>
+      </c>
+      <c r="F12" s="18">
+        <v>44761</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="9"/>
@@ -1189,10 +1208,10 @@
       <c r="N25" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N11" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
+  <autoFilter ref="A4:N12" xr:uid="{CB5DAD48-3949-4D57-8093-C7F1715EEE30}">
     <filterColumn colId="5">
       <filters>
-        <dateGroupItem year="2022" month="7" day="8" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="7" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
